--- a/Document/reande-sql.xlsx
+++ b/Document/reande-sql.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\iProjects\blogs\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9629BD66-B254-49B6-B8EA-51AB96695461}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7897FAD-52C4-4F73-A687-B86BCCBD7D58}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="1" xr2:uid="{9CFCF613-1887-4A3F-80FE-31B0496522DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" firstSheet="1" activeTab="3" xr2:uid="{9CFCF613-1887-4A3F-80FE-31B0496522DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Chay Truyen Thong" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -552,17 +552,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3864DD8D-855C-4796-B591-2BD49D48B662}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,22 +576,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -609,15 +609,15 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -645,7 +645,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -659,7 +659,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -673,7 +673,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -687,7 +687,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -701,7 +701,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -715,7 +715,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -729,7 +729,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -743,7 +743,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -771,7 +771,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -785,7 +785,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -799,7 +799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -813,7 +813,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -827,7 +827,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -841,7 +841,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -869,7 +869,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -897,7 +897,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -925,7 +925,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -948,19 +948,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E883F0FB-28DE-4479-9EB2-4021E7850B0F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -984,8 +984,11 @@
       <c r="C2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -995,8 +998,11 @@
       <c r="C3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1012,11 @@
       <c r="C4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1017,8 +1026,11 @@
       <c r="C5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1040,11 @@
       <c r="C6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1039,8 +1054,11 @@
       <c r="C7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1050,8 +1068,11 @@
       <c r="C8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1061,8 +1082,11 @@
       <c r="C9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1072,8 +1096,11 @@
       <c r="C10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1083,8 +1110,11 @@
       <c r="C11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="C12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1104,6 +1137,9 @@
       </c>
       <c r="C13">
         <v>30</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
